--- a/data/trans_orig/P6507-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D52AF6-A484-464E-BC3E-57E755BCA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94ADCC0A-3595-450B-BEEC-474C2E4699B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A2BF6F0-C58A-44CC-A061-BF2110030FC3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE4195C4-111A-456A-9408-E7DDC543DE17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>81,24%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>0%</t>
@@ -179,10 +179,10 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,19 +194,19 @@
     <t>82,12%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>86,8%</t>
@@ -215,286 +215,286 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>88,34%</t>
+    <t>88,29%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F80E54-C0AC-47EF-95FB-B364DAC34FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C6CDE0-96F5-4676-8C65-0C92D6FCF9BC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1362,10 +1362,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>116</v>
@@ -1374,13 +1374,13 @@
         <v>117198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,13 +1395,13 @@
         <v>74654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1410,13 +1410,13 @@
         <v>8013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -1425,13 +1425,13 @@
         <v>82668</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,13 +1446,13 @@
         <v>23109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1461,13 +1461,13 @@
         <v>2047</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1476,13 +1476,13 @@
         <v>25156</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1550,13 +1550,13 @@
         <v>372924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -1565,13 +1565,13 @@
         <v>272949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -1580,13 +1580,13 @@
         <v>645873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>21137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1616,13 +1616,13 @@
         <v>9513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -1631,13 +1631,13 @@
         <v>30650</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1652,13 @@
         <v>6634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1670,10 +1670,10 @@
         <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1682,13 +1682,13 @@
         <v>10712</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>4615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>3636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>114</v>
@@ -1924,13 +1924,13 @@
         <v>14240</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -1939,13 +1939,13 @@
         <v>118290</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,10 +1960,10 @@
         <v>37217</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>147</v>

--- a/data/trans_orig/P6507-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94ADCC0A-3595-450B-BEEC-474C2E4699B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F80B54-7FB3-4B26-9E8B-90C8992625DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE4195C4-111A-456A-9408-E7DDC543DE17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC96FD8A-2A3D-4E93-B01E-AEF35A6BF24D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>81,24%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,382 +104,385 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -488,16 +491,13 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C6CDE0-96F5-4676-8C65-0C92D6FCF9BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B41B1D-2095-417E-8B19-0E67895829D1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,13 +1153,13 @@
         <v>2149</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -1168,19 +1168,19 @@
         <v>24909</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -1189,13 +1189,13 @@
         <v>9492</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1219,13 +1219,13 @@
         <v>9492</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -1255,13 +1255,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -1270,18 +1270,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1293,13 +1293,13 @@
         <v>922731</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>531</v>
@@ -1308,13 +1308,13 @@
         <v>556625</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1409</v>
@@ -1323,13 +1323,13 @@
         <v>1479356</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,13 +1344,13 @@
         <v>103174</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1359,13 +1359,13 @@
         <v>14024</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>116</v>
@@ -1374,13 +1374,13 @@
         <v>117198</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,13 +1395,13 @@
         <v>74654</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1410,13 +1410,13 @@
         <v>8013</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -1425,19 +1425,19 @@
         <v>82668</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>22</v>
@@ -1446,13 +1446,13 @@
         <v>23109</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1461,13 +1461,13 @@
         <v>2047</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1476,13 +1476,13 @@
         <v>25156</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1497,13 @@
         <v>1123669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>555</v>
@@ -1512,13 +1512,13 @@
         <v>580709</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1631</v>
@@ -1527,18 +1527,18 @@
         <v>1704378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1550,13 +1550,13 @@
         <v>372924</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -1565,13 +1565,13 @@
         <v>272949</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -1580,13 +1580,13 @@
         <v>645873</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>21137</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1616,13 +1616,13 @@
         <v>9513</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -1631,13 +1631,13 @@
         <v>30650</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1652,13 @@
         <v>6634</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1667,13 +1667,13 @@
         <v>4078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1682,19 +1682,19 @@
         <v>10712</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -1703,13 +1703,13 @@
         <v>4615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>3636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>114</v>
@@ -1754,13 +1754,13 @@
         <v>405310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -1769,13 +1769,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -1784,13 +1784,13 @@
         <v>695486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1924,13 @@
         <v>14240</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -1939,19 +1939,19 @@
         <v>118290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>37</v>
@@ -1960,13 +1960,13 @@
         <v>37217</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -1975,13 +1975,13 @@
         <v>5683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -1990,13 +1990,13 @@
         <v>42900</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2011,13 @@
         <v>1904499</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>979</v>
@@ -2026,13 +2026,13 @@
         <v>1023355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>2802</v>
@@ -2041,13 +2041,13 @@
         <v>2927854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6507-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F80B54-7FB3-4B26-9E8B-90C8992625DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C4BC5B-7C4E-4792-B4CC-68A9A90FE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC96FD8A-2A3D-4E93-B01E-AEF35A6BF24D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{648FE8B0-FDC7-4317-9BEA-32E050A9155E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>81,24%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,7 +104,7 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>7,34%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>13,54%</t>
@@ -113,46 +113,49 @@
     <t>4,2%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,10 +164,10 @@
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>0%</t>
@@ -176,10 +179,10 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,79 +194,79 @@
     <t>82,12%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>4,03%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -272,22 +275,22 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -296,85 +299,82 @@
     <t>92,01%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -383,112 +383,109 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,19%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -497,7 +494,10 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B41B1D-2095-417E-8B19-0E67895829D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B71054-FBC5-4A04-A3E3-6A11A2C1461B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,13 +1153,13 @@
         <v>2149</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -1168,19 +1168,19 @@
         <v>24909</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -1189,13 +1189,13 @@
         <v>9492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1219,13 +1219,13 @@
         <v>9492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -1255,13 +1255,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -1270,18 +1270,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1293,13 +1293,13 @@
         <v>922731</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>531</v>
@@ -1308,13 +1308,13 @@
         <v>556625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1409</v>
@@ -1323,13 +1323,13 @@
         <v>1479356</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,13 +1344,13 @@
         <v>103174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -1359,13 +1359,13 @@
         <v>14024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>116</v>
@@ -1374,13 +1374,13 @@
         <v>117198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,13 +1395,13 @@
         <v>74654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1410,13 +1410,13 @@
         <v>8013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -1425,19 +1425,19 @@
         <v>82668</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>22</v>
@@ -1446,13 +1446,13 @@
         <v>23109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1461,13 +1461,13 @@
         <v>2047</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1476,13 +1476,13 @@
         <v>25156</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1497,13 @@
         <v>1123669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>555</v>
@@ -1512,13 +1512,13 @@
         <v>580709</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1631</v>
@@ -1527,18 +1527,18 @@
         <v>1704378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1550,13 +1550,13 @@
         <v>372924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -1565,13 +1565,13 @@
         <v>272949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -1580,13 +1580,13 @@
         <v>645873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>21137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>95</v>
@@ -1667,10 +1667,10 @@
         <v>4078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>106</v>
@@ -1694,7 +1694,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -1754,13 +1754,13 @@
         <v>405310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -1769,13 +1769,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -1784,13 +1784,13 @@
         <v>695486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,7 +1951,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>37</v>
@@ -1963,10 +1963,10 @@
         <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -1975,13 +1975,13 @@
         <v>5683</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -1990,13 +1990,13 @@
         <v>42900</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2011,13 @@
         <v>1904499</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>979</v>
@@ -2026,13 +2026,13 @@
         <v>1023355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>2802</v>
@@ -2041,13 +2041,13 @@
         <v>2927854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6507-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C4BC5B-7C4E-4792-B4CC-68A9A90FE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF33849-EA7C-4B92-90BB-31D74958A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{648FE8B0-FDC7-4317-9BEA-32E050A9155E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4C78B59-0D39-4AD8-999E-D29D99B13A62}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B71054-FBC5-4A04-A3E3-6A11A2C1461B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3748D4-7C7D-4A94-89E5-56EF9E08BF26}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1562,7 +1562,7 @@
         <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>272949</v>
+        <v>272950</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>89</v>
@@ -1766,7 +1766,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
